--- a/bom/BOM_X_HemeraTopMount.xlsx
+++ b/bom/BOM_X_HemeraTopMount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{05BCFB5F-CBF0-48ED-9ABC-16E35542CED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11F7FFB1-E864-47F7-9FB7-A57C909F6FE2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{05BCFB5F-CBF0-48ED-9ABC-16E35542CED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91185BFF-670C-4D85-9593-4140897DF7A4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -267,12 +267,6 @@
   </si>
   <si>
     <t>Optical End-Stop</t>
-  </si>
-  <si>
-    <t>AliExpress</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/33006421501.html?spm=a2g0s.9042311.0.0.3e4d4c4dQtB9Y8</t>
   </si>
   <si>
     <t>37ae3e0660b16d0dba47ce09569758c1</t>
@@ -578,17 +572,12 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -607,9 +596,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -624,55 +610,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -720,12 +657,69 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1847,24 +1841,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20277A41-C0CC-4728-8AD5-A4C94FCCE998}" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20277A41-C0CC-4728-8AD5-A4C94FCCE998}" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L26" xr:uid="{64AB168A-8C44-4209-A376-C71C2F523899}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
     <sortCondition ref="B1:B26"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E2E40605-A2C1-43B6-B7EF-384115DAB574}" name="SubAssy" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9643EF61-D4C9-45AE-82F0-B1A5B05FDF03}" name="Category" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6EC3C9EA-BD89-4AB7-9E93-BE6896D9306B}" name="Item" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{22C1B854-AE76-4C23-A2DE-C7A88A5018D9}" name="Thumbnail" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B14B9D86-26DB-43A8-98A8-D55F5E4FC4B7}" name="Part Name" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{10B2B04E-424B-4BE4-A579-D9A79972F5EC}" name="Part Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{F75A3D40-C8C6-4C96-8982-0248DA3AEFEA}" name="Make/Buy" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{2D1E5A41-D4BB-43FA-BA8C-8A421B83FAD1}" name="QTY" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5AC75C10-6037-4B70-B257-42BF576D2EBF}" name="Comment" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E2E40605-A2C1-43B6-B7EF-384115DAB574}" name="SubAssy" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9643EF61-D4C9-45AE-82F0-B1A5B05FDF03}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6EC3C9EA-BD89-4AB7-9E93-BE6896D9306B}" name="Item" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{22C1B854-AE76-4C23-A2DE-C7A88A5018D9}" name="Thumbnail" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B14B9D86-26DB-43A8-98A8-D55F5E4FC4B7}" name="Part Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{10B2B04E-424B-4BE4-A579-D9A79972F5EC}" name="Part Description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F75A3D40-C8C6-4C96-8982-0248DA3AEFEA}" name="Make/Buy" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{2D1E5A41-D4BB-43FA-BA8C-8A421B83FAD1}" name="QTY" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{5AC75C10-6037-4B70-B257-42BF576D2EBF}" name="Comment" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{6D803755-9BB3-4BC7-A5D2-A49BC4A116FD}" name="Vendor" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{02AF2030-FFD9-453A-ADD2-4D1A37C8D9B0}" name="Vendor URL" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{D584404D-60EF-4872-82E6-D748EE9AFD6E}" name="ID" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{02AF2030-FFD9-453A-ADD2-4D1A37C8D9B0}" name="Vendor URL" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{D584404D-60EF-4872-82E6-D748EE9AFD6E}" name="ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2193,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,13 +2210,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2231,16 +2225,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -2254,7 +2248,7 @@
     </row>
     <row r="2" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>11</v>
@@ -2266,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>11</v>
@@ -2275,13 +2269,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>8</v>
@@ -2289,7 +2283,7 @@
     </row>
     <row r="3" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
@@ -2312,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>13</v>
@@ -2320,7 +2314,7 @@
     </row>
     <row r="4" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2348,7 +2342,7 @@
     </row>
     <row r="5" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>11</v>
@@ -2376,7 +2370,7 @@
     </row>
     <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -2404,7 +2398,7 @@
     </row>
     <row r="7" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
@@ -2432,7 +2426,7 @@
     </row>
     <row r="8" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>11</v>
@@ -2460,7 +2454,7 @@
     </row>
     <row r="9" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>11</v>
@@ -2488,7 +2482,7 @@
     </row>
     <row r="10" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>11</v>
@@ -2516,7 +2510,7 @@
     </row>
     <row r="11" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>11</v>
@@ -2537,19 +2531,14 @@
         <v>1</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>11</v>
@@ -2558,7 +2547,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
@@ -2568,16 +2557,16 @@
         <v>1</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -2586,7 +2575,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
@@ -2598,15 +2587,15 @@
       <c r="I13" s="11"/>
       <c r="K13" s="7"/>
       <c r="L13" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>52</v>
@@ -2631,10 +2620,10 @@
     </row>
     <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>55</v>
@@ -2659,10 +2648,10 @@
     </row>
     <row r="16" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>58</v>
@@ -2687,7 +2676,7 @@
     </row>
     <row r="17" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2706,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="4" t="s">
@@ -2715,7 +2704,7 @@
     </row>
     <row r="18" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -2724,7 +2713,7 @@
         <v>65</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10" t="s">
@@ -2734,19 +2723,19 @@
         <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>68</v>
@@ -2762,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="4" t="s">
@@ -2774,10 +2763,10 @@
     </row>
     <row r="20" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>72</v>
@@ -2794,7 +2783,7 @@
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="4" t="s">
@@ -2803,10 +2792,10 @@
     </row>
     <row r="21" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>76</v>
@@ -2823,7 +2812,7 @@
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="4" t="s">
@@ -2832,13 +2821,13 @@
     </row>
     <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>56</v>
@@ -2852,7 +2841,7 @@
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="4" t="s">
@@ -2861,13 +2850,13 @@
     </row>
     <row r="23" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>63</v>
@@ -2881,7 +2870,7 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="4" t="s">
@@ -2890,13 +2879,13 @@
     </row>
     <row r="24" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>66</v>
@@ -2910,7 +2899,7 @@
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="4" t="s">
@@ -2919,16 +2908,16 @@
     </row>
     <row r="25" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10" t="s">
@@ -2939,25 +2928,25 @@
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10" t="s">
@@ -2967,31 +2956,30 @@
         <v>1</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{0C05A9E1-85F4-40A6-892B-7CFEFD3927A2}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{6B460A59-0250-47DF-8879-82EA09239354}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{0C05A9E1-85F4-40A6-892B-7CFEFD3927A2}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{6B460A59-0250-47DF-8879-82EA09239354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <webPublishItems count="1">
     <webPublishItem id="14403" divId="BOM_X_HemeraTopMount_14403" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_X_HemeraTopMount.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>